--- a/Input/Covariates.xlsx
+++ b/Input/Covariates.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MI\2178\Final_Paper\Final_Paper\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AB2AE3-166C-42B7-AEE8-23D6EFD5874A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E55BFD4-3EAA-44AF-B128-71C3FEE9815F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="17349" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="缺失值处理后数据1222改随机森林" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ \U\T\C"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +209,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -650,7 +661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,9 +680,10 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1027,20 +1039,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="2" max="2" width="16.07421875" customWidth="1"/>
+    <col min="1" max="1" width="33.765625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14.61328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="29.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1051,8 +1064,8 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6">
-        <v>43160</v>
+      <c r="A2" s="7">
+        <v>43190</v>
       </c>
       <c r="B2">
         <v>53251529</v>
@@ -1062,8 +1075,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1">
-      <c r="A3" s="6">
-        <v>43191</v>
+      <c r="A3" s="7">
+        <v>43197</v>
       </c>
       <c r="B3" s="3">
         <v>52167975</v>
@@ -1073,355 +1086,1697 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6">
-        <v>43221</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="7">
+        <v>43204</v>
+      </c>
+      <c r="B4" s="3">
+        <v>52167975</v>
+      </c>
+      <c r="C4" s="3">
+        <v>756.57666670000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7">
+        <v>43211</v>
+      </c>
+      <c r="B5" s="3">
+        <v>52167975</v>
+      </c>
+      <c r="C5" s="3">
+        <v>756.57666670000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="7">
+        <v>43218</v>
+      </c>
+      <c r="B6" s="3">
+        <v>52167975</v>
+      </c>
+      <c r="C6" s="3">
+        <v>756.57666670000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="7">
+        <v>43225</v>
+      </c>
+      <c r="B7">
         <v>55339127</v>
       </c>
-      <c r="C4">
+      <c r="C7">
         <v>1017.076364</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6">
-        <v>43252</v>
-      </c>
-      <c r="B5">
+    <row r="8" spans="1:3">
+      <c r="A8" s="7">
+        <v>43232</v>
+      </c>
+      <c r="B8">
+        <v>55339127</v>
+      </c>
+      <c r="C8">
+        <v>1017.076364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="7">
+        <v>43239</v>
+      </c>
+      <c r="B9">
+        <v>55339127</v>
+      </c>
+      <c r="C9">
+        <v>1017.076364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="7">
+        <v>43246</v>
+      </c>
+      <c r="B10">
+        <v>55339127</v>
+      </c>
+      <c r="C10">
+        <v>1017.076364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7">
+        <v>43253</v>
+      </c>
+      <c r="B11">
         <v>56630439</v>
       </c>
-      <c r="C5">
+      <c r="C11">
         <v>902.32600000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6">
-        <v>43282</v>
-      </c>
-      <c r="B6">
+    <row r="12" spans="1:3">
+      <c r="A12" s="7">
+        <v>43260</v>
+      </c>
+      <c r="B12">
+        <v>56630439</v>
+      </c>
+      <c r="C12">
+        <v>902.32600000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="7">
+        <v>43267</v>
+      </c>
+      <c r="B13">
+        <v>56630439</v>
+      </c>
+      <c r="C13">
+        <v>902.32600000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="7">
+        <v>43274</v>
+      </c>
+      <c r="B14">
+        <v>56630439</v>
+      </c>
+      <c r="C14">
+        <v>902.32600000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="7">
+        <v>43281</v>
+      </c>
+      <c r="B15">
         <v>64844537</v>
       </c>
-      <c r="C6">
+      <c r="C15">
         <v>795.44590909999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="6">
-        <v>43313</v>
-      </c>
-      <c r="B7">
+    <row r="16" spans="1:3">
+      <c r="A16" s="7">
+        <v>43288</v>
+      </c>
+      <c r="B16">
+        <v>64844537</v>
+      </c>
+      <c r="C16">
+        <v>795.44590909999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="7">
+        <v>43295</v>
+      </c>
+      <c r="B17">
+        <v>64844537</v>
+      </c>
+      <c r="C17">
+        <v>795.44590909999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7">
+        <v>43302</v>
+      </c>
+      <c r="B18">
+        <v>64844537</v>
+      </c>
+      <c r="C18">
+        <v>795.44590909999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="7">
+        <v>43309</v>
+      </c>
+      <c r="B19">
         <v>65211548</v>
       </c>
-      <c r="C7">
+      <c r="C19">
         <v>913.6082609</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="6">
+    <row r="20" spans="1:3">
+      <c r="A20" s="7">
+        <v>43316</v>
+      </c>
+      <c r="B20">
+        <v>65211548</v>
+      </c>
+      <c r="C20">
+        <v>913.6082609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="7">
+        <v>43323</v>
+      </c>
+      <c r="B21">
+        <v>65211548</v>
+      </c>
+      <c r="C21">
+        <v>913.6082609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="7">
+        <v>43330</v>
+      </c>
+      <c r="B22">
+        <v>65211548</v>
+      </c>
+      <c r="C22">
+        <v>913.6082609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="7">
+        <v>43337</v>
+      </c>
+      <c r="B23">
+        <v>65211548</v>
+      </c>
+      <c r="C23">
+        <v>913.6082609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="7">
         <v>43344</v>
       </c>
-      <c r="B8">
+      <c r="B24">
         <v>57423724</v>
       </c>
-      <c r="C8">
+      <c r="C24">
         <v>1007.923684</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="6">
-        <v>43374</v>
-      </c>
-      <c r="B9">
+    <row r="25" spans="1:3">
+      <c r="A25" s="7">
+        <v>43351</v>
+      </c>
+      <c r="B25">
+        <v>57423724</v>
+      </c>
+      <c r="C25">
+        <v>1007.923684</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="7">
+        <v>43358</v>
+      </c>
+      <c r="B26">
+        <v>57423724</v>
+      </c>
+      <c r="C26">
+        <v>1007.923684</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="7">
+        <v>43365</v>
+      </c>
+      <c r="B27">
+        <v>57423724</v>
+      </c>
+      <c r="C27">
+        <v>1007.923684</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7">
+        <v>43372</v>
+      </c>
+      <c r="B28">
+        <v>57423724</v>
+      </c>
+      <c r="C28">
+        <v>1007.923684</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="7">
+        <v>43379</v>
+      </c>
+      <c r="B29">
         <v>54814120</v>
       </c>
-      <c r="C9">
+      <c r="C29">
         <v>1055.6555559999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="6">
-        <v>43405</v>
-      </c>
-      <c r="B10">
+    <row r="30" spans="1:3">
+      <c r="A30" s="7">
+        <v>43386</v>
+      </c>
+      <c r="B30">
+        <v>54814120</v>
+      </c>
+      <c r="C30">
+        <v>1055.6555559999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="7">
+        <v>43393</v>
+      </c>
+      <c r="B31">
+        <v>54814120</v>
+      </c>
+      <c r="C31">
+        <v>1055.6555559999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="7">
+        <v>43400</v>
+      </c>
+      <c r="B32">
+        <v>54814120</v>
+      </c>
+      <c r="C32">
+        <v>1055.6555559999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="7">
+        <v>43407</v>
+      </c>
+      <c r="B33">
         <v>56466039</v>
       </c>
-      <c r="C10">
+      <c r="C33">
         <v>851.66294119999998</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="6">
+    <row r="34" spans="1:3">
+      <c r="A34" s="7">
+        <v>43414</v>
+      </c>
+      <c r="B34">
+        <v>56466039</v>
+      </c>
+      <c r="C34">
+        <v>851.66294119999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="7">
+        <v>43421</v>
+      </c>
+      <c r="B35">
+        <v>56466039</v>
+      </c>
+      <c r="C35">
+        <v>851.66294119999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="7">
+        <v>43428</v>
+      </c>
+      <c r="B36">
+        <v>56466039</v>
+      </c>
+      <c r="C36">
+        <v>851.66294119999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="7">
         <v>43435</v>
       </c>
-      <c r="B11">
+      <c r="B37">
         <v>62502377</v>
       </c>
-      <c r="C11">
+      <c r="C37">
         <v>725.66099999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="6">
-        <v>43466</v>
-      </c>
-      <c r="B12">
+    <row r="38" spans="1:3">
+      <c r="A38" s="7">
+        <v>43442</v>
+      </c>
+      <c r="B38">
+        <v>62502377</v>
+      </c>
+      <c r="C38">
+        <v>725.66099999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="7">
+        <v>43449</v>
+      </c>
+      <c r="B39">
+        <v>62502377</v>
+      </c>
+      <c r="C39">
+        <v>725.66099999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="7">
+        <v>43456</v>
+      </c>
+      <c r="B40">
+        <v>62502377</v>
+      </c>
+      <c r="C40">
+        <v>725.66099999999994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="7">
+        <v>43463</v>
+      </c>
+      <c r="B41">
         <v>61718207</v>
       </c>
-      <c r="C12">
+      <c r="C41">
         <v>652.21363640000004</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="6">
-        <v>43497</v>
-      </c>
-      <c r="B13">
+    <row r="42" spans="1:3">
+      <c r="A42" s="7">
+        <v>43470</v>
+      </c>
+      <c r="B42">
+        <v>61718207</v>
+      </c>
+      <c r="C42">
+        <v>652.21363640000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="7">
+        <v>43477</v>
+      </c>
+      <c r="B43">
+        <v>61718207</v>
+      </c>
+      <c r="C43">
+        <v>652.21363640000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="7">
+        <v>43484</v>
+      </c>
+      <c r="B44">
+        <v>61718207</v>
+      </c>
+      <c r="C44">
+        <v>652.21363640000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="7">
+        <v>43491</v>
+      </c>
+      <c r="B45">
         <v>48911806</v>
       </c>
-      <c r="C13">
+      <c r="C45">
         <v>582.01733330000002</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="6">
-        <v>43525</v>
-      </c>
-      <c r="B14">
+    <row r="46" spans="1:3">
+      <c r="A46" s="7">
+        <v>43498</v>
+      </c>
+      <c r="B46">
+        <v>48911806</v>
+      </c>
+      <c r="C46">
+        <v>582.01733330000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="7">
+        <v>43505</v>
+      </c>
+      <c r="B47">
+        <v>48911806</v>
+      </c>
+      <c r="C47">
+        <v>582.01733330000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="7">
+        <v>43512</v>
+      </c>
+      <c r="B48">
+        <v>48911806</v>
+      </c>
+      <c r="C48">
+        <v>582.01733330000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="7">
+        <v>43519</v>
+      </c>
+      <c r="B49">
+        <v>48911806</v>
+      </c>
+      <c r="C49">
+        <v>582.01733330000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="7">
+        <v>43526</v>
+      </c>
+      <c r="B50">
         <v>57318618</v>
       </c>
-      <c r="C14">
+      <c r="C50">
         <v>666.87666669999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="6">
-        <v>43556</v>
-      </c>
-      <c r="B15">
+    <row r="51" spans="1:3">
+      <c r="A51" s="7">
+        <v>43533</v>
+      </c>
+      <c r="B51">
+        <v>57318618</v>
+      </c>
+      <c r="C51">
+        <v>666.87666669999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="7">
+        <v>43540</v>
+      </c>
+      <c r="B52">
+        <v>57318618</v>
+      </c>
+      <c r="C52">
+        <v>666.87666669999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="7">
+        <v>43547</v>
+      </c>
+      <c r="B53">
+        <v>57318618</v>
+      </c>
+      <c r="C53">
+        <v>666.87666669999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="7">
+        <v>43554</v>
+      </c>
+      <c r="B54">
+        <v>57318618</v>
+      </c>
+      <c r="C54">
+        <v>666.87666669999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="7">
+        <v>43561</v>
+      </c>
+      <c r="B55">
         <v>55336590</v>
       </c>
-      <c r="C15">
+      <c r="C55">
         <v>750.68904759999998</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="6">
-        <v>43586</v>
-      </c>
-      <c r="B16">
+    <row r="56" spans="1:3">
+      <c r="A56" s="7">
+        <v>43568</v>
+      </c>
+      <c r="B56">
+        <v>55336590</v>
+      </c>
+      <c r="C56">
+        <v>750.68904759999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="7">
+        <v>43575</v>
+      </c>
+      <c r="B57">
+        <v>55336590</v>
+      </c>
+      <c r="C57">
+        <v>750.68904759999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="7">
+        <v>43582</v>
+      </c>
+      <c r="B58">
+        <v>55336590</v>
+      </c>
+      <c r="C58">
+        <v>750.68904759999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="7">
+        <v>43589</v>
+      </c>
+      <c r="B59">
         <v>56648443</v>
       </c>
-      <c r="C16">
+      <c r="C59">
         <v>856.48800000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="6">
+    <row r="60" spans="1:3">
+      <c r="A60" s="7">
+        <v>43596</v>
+      </c>
+      <c r="B60">
+        <v>56648443</v>
+      </c>
+      <c r="C60">
+        <v>856.48800000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="7">
+        <v>43603</v>
+      </c>
+      <c r="B61">
+        <v>56648443</v>
+      </c>
+      <c r="C61">
+        <v>856.48800000000006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="7">
+        <v>43610</v>
+      </c>
+      <c r="B62">
+        <v>56648443</v>
+      </c>
+      <c r="C62">
+        <v>856.48800000000006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="7">
         <v>43617</v>
       </c>
-      <c r="B17">
+      <c r="B63">
         <v>59870000</v>
       </c>
-      <c r="C17">
+      <c r="C63">
         <v>715.70947369999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="6">
-        <v>43647</v>
-      </c>
-      <c r="B18">
+    <row r="64" spans="1:3">
+      <c r="A64" s="7">
+        <v>43624</v>
+      </c>
+      <c r="B64">
+        <v>59870000</v>
+      </c>
+      <c r="C64">
+        <v>715.70947369999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="7">
+        <v>43631</v>
+      </c>
+      <c r="B65">
+        <v>59870000</v>
+      </c>
+      <c r="C65">
+        <v>715.70947369999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="7">
+        <v>43638</v>
+      </c>
+      <c r="B66">
+        <v>59870000</v>
+      </c>
+      <c r="C66">
+        <v>715.70947369999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="7">
+        <v>43645</v>
+      </c>
+      <c r="B67">
         <v>66716543</v>
       </c>
-      <c r="C18">
+      <c r="C67">
         <v>626.78913039999998</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6">
-        <v>43678</v>
-      </c>
-      <c r="B19">
+    <row r="68" spans="1:3">
+      <c r="A68" s="7">
+        <v>43652</v>
+      </c>
+      <c r="B68">
+        <v>66716543</v>
+      </c>
+      <c r="C68">
+        <v>626.78913039999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="7">
+        <v>43659</v>
+      </c>
+      <c r="B69">
+        <v>66716543</v>
+      </c>
+      <c r="C69">
+        <v>626.78913039999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="7">
+        <v>43666</v>
+      </c>
+      <c r="B70">
+        <v>66716543</v>
+      </c>
+      <c r="C70">
+        <v>626.78913039999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="7">
+        <v>43673</v>
+      </c>
+      <c r="B71">
+        <v>66716543</v>
+      </c>
+      <c r="C71">
+        <v>626.78913039999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="7">
+        <v>43680</v>
+      </c>
+      <c r="B72">
         <v>67704402</v>
       </c>
-      <c r="C19">
+      <c r="C72">
         <v>720.35863640000002</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6">
-        <v>43709</v>
-      </c>
-      <c r="B20">
+    <row r="73" spans="1:3">
+      <c r="A73" s="7">
+        <v>43687</v>
+      </c>
+      <c r="B73">
+        <v>67704402</v>
+      </c>
+      <c r="C73">
+        <v>720.35863640000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="7">
+        <v>43694</v>
+      </c>
+      <c r="B74">
+        <v>67704402</v>
+      </c>
+      <c r="C74">
+        <v>720.35863640000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="7">
+        <v>43701</v>
+      </c>
+      <c r="B75">
+        <v>67704402</v>
+      </c>
+      <c r="C75">
+        <v>720.35863640000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="7">
+        <v>43708</v>
+      </c>
+      <c r="B76">
         <v>60195774</v>
       </c>
-      <c r="C20">
+      <c r="C76">
         <v>808.21249999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6">
-        <v>43739</v>
-      </c>
-      <c r="B21">
+    <row r="77" spans="1:3">
+      <c r="A77" s="7">
+        <v>43715</v>
+      </c>
+      <c r="B77">
+        <v>60195774</v>
+      </c>
+      <c r="C77">
+        <v>808.21249999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="7">
+        <v>43722</v>
+      </c>
+      <c r="B78">
+        <v>60195774</v>
+      </c>
+      <c r="C78">
+        <v>808.21249999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="7">
+        <v>43729</v>
+      </c>
+      <c r="B79">
+        <v>60195774</v>
+      </c>
+      <c r="C79">
+        <v>808.21249999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="7">
+        <v>43736</v>
+      </c>
+      <c r="B80">
         <v>57903158</v>
       </c>
-      <c r="C21">
+      <c r="C80">
         <v>850.41666669999995</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6">
-        <v>43770</v>
-      </c>
-      <c r="B22">
+    <row r="81" spans="1:3">
+      <c r="A81" s="7">
+        <v>43743</v>
+      </c>
+      <c r="B81">
+        <v>57903158</v>
+      </c>
+      <c r="C81">
+        <v>850.41666669999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="7">
+        <v>43750</v>
+      </c>
+      <c r="B82">
+        <v>57903158</v>
+      </c>
+      <c r="C82">
+        <v>850.41666669999995</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="7">
+        <v>43757</v>
+      </c>
+      <c r="B83">
+        <v>57903158</v>
+      </c>
+      <c r="C83">
+        <v>850.41666669999995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="7">
+        <v>43764</v>
+      </c>
+      <c r="B84">
+        <v>57903158</v>
+      </c>
+      <c r="C84">
+        <v>850.41666669999995</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="7">
+        <v>43771</v>
+      </c>
+      <c r="B85">
         <v>59121313</v>
       </c>
-      <c r="C22">
+      <c r="C85">
         <v>807.92</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="6">
-        <v>43800</v>
-      </c>
-      <c r="B23">
+    <row r="86" spans="1:3">
+      <c r="A86" s="7">
+        <v>43778</v>
+      </c>
+      <c r="B86">
+        <v>59121313</v>
+      </c>
+      <c r="C86">
+        <v>807.92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="7">
+        <v>43785</v>
+      </c>
+      <c r="B87">
+        <v>59121313</v>
+      </c>
+      <c r="C87">
+        <v>807.92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="7">
+        <v>43792</v>
+      </c>
+      <c r="B88">
+        <v>59121313</v>
+      </c>
+      <c r="C88">
+        <v>807.92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="7">
+        <v>43799</v>
+      </c>
+      <c r="B89">
         <v>71109140</v>
       </c>
-      <c r="C23">
+      <c r="C89">
         <v>920.01818179999998</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="6">
-        <v>43831</v>
-      </c>
-      <c r="B24">
+    <row r="90" spans="1:3">
+      <c r="A90" s="7">
+        <v>43806</v>
+      </c>
+      <c r="B90">
+        <v>71109140</v>
+      </c>
+      <c r="C90">
+        <v>920.01818179999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="7">
+        <v>43813</v>
+      </c>
+      <c r="B91">
+        <v>71109140</v>
+      </c>
+      <c r="C91">
+        <v>920.01818179999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="7">
+        <v>43820</v>
+      </c>
+      <c r="B92">
+        <v>71109140</v>
+      </c>
+      <c r="C92">
+        <v>920.01818179999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="7">
+        <v>43827</v>
+      </c>
+      <c r="B93">
+        <v>71109140</v>
+      </c>
+      <c r="C93">
+        <v>920.01818179999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="7">
+        <v>43834</v>
+      </c>
+      <c r="B94">
         <v>58057651</v>
       </c>
-      <c r="C24">
+      <c r="C94">
         <v>593.8075</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="6">
-        <v>43862</v>
-      </c>
-      <c r="B25">
+    <row r="95" spans="1:3">
+      <c r="A95" s="7">
+        <v>43841</v>
+      </c>
+      <c r="B95">
+        <v>58057651</v>
+      </c>
+      <c r="C95">
+        <v>593.8075</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="7">
+        <v>43848</v>
+      </c>
+      <c r="B96">
+        <v>58057651</v>
+      </c>
+      <c r="C96">
+        <v>593.8075</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="7">
+        <v>43855</v>
+      </c>
+      <c r="B97">
+        <v>58057651</v>
+      </c>
+      <c r="C97">
+        <v>593.8075</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="7">
+        <v>43869</v>
+      </c>
+      <c r="B98">
         <v>43975728</v>
       </c>
-      <c r="C25">
+      <c r="C98">
         <v>496.61599999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="6">
-        <v>43891</v>
-      </c>
-      <c r="B26">
+    <row r="99" spans="1:3">
+      <c r="A99" s="7">
+        <v>43876</v>
+      </c>
+      <c r="B99">
+        <v>43975728</v>
+      </c>
+      <c r="C99">
+        <v>496.61599999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="7">
+        <v>43883</v>
+      </c>
+      <c r="B100">
+        <v>43975728</v>
+      </c>
+      <c r="C100">
+        <v>496.61599999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="7">
+        <v>43890</v>
+      </c>
+      <c r="B101">
+        <v>43975728</v>
+      </c>
+      <c r="C101">
+        <v>496.61599999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="7">
+        <v>43897</v>
+      </c>
+      <c r="B102">
         <v>54926853</v>
       </c>
-      <c r="C26">
+      <c r="C102">
         <v>470.41409090000002</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="6">
-        <v>43922</v>
-      </c>
-      <c r="B27">
+    <row r="103" spans="1:3">
+      <c r="A103" s="7">
+        <v>43904</v>
+      </c>
+      <c r="B103">
+        <v>54926853</v>
+      </c>
+      <c r="C103">
+        <v>470.41409090000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="7">
+        <v>43911</v>
+      </c>
+      <c r="B104">
+        <v>54926853</v>
+      </c>
+      <c r="C104">
+        <v>470.41409090000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="7">
+        <v>43918</v>
+      </c>
+      <c r="B105">
+        <v>54926853</v>
+      </c>
+      <c r="C105">
+        <v>470.41409090000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="7">
+        <v>43925</v>
+      </c>
+      <c r="B106">
         <v>55718501</v>
       </c>
-      <c r="C27">
+      <c r="C106">
         <v>512.75571430000002</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="6">
-        <v>43952</v>
-      </c>
-      <c r="B28">
+    <row r="107" spans="1:3">
+      <c r="A107" s="7">
+        <v>43932</v>
+      </c>
+      <c r="B107">
+        <v>55718501</v>
+      </c>
+      <c r="C107">
+        <v>512.75571430000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="7">
+        <v>43939</v>
+      </c>
+      <c r="B108">
+        <v>55718501</v>
+      </c>
+      <c r="C108">
+        <v>512.75571430000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="7">
+        <v>43946</v>
+      </c>
+      <c r="B109">
+        <v>55718501</v>
+      </c>
+      <c r="C109">
+        <v>512.75571430000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="7">
+        <v>43953</v>
+      </c>
+      <c r="B110">
         <v>59257861</v>
       </c>
-      <c r="C28">
+      <c r="C110">
         <v>728.40444439999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="6">
-        <v>43983</v>
-      </c>
-      <c r="B29">
+    <row r="111" spans="1:3">
+      <c r="A111" s="7">
+        <v>43960</v>
+      </c>
+      <c r="B111">
+        <v>59257861</v>
+      </c>
+      <c r="C111">
+        <v>728.40444439999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="7">
+        <v>43967</v>
+      </c>
+      <c r="B112">
+        <v>59257861</v>
+      </c>
+      <c r="C112">
+        <v>728.40444439999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="7">
+        <v>43974</v>
+      </c>
+      <c r="B113">
+        <v>59257861</v>
+      </c>
+      <c r="C113">
+        <v>728.40444439999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="7">
+        <v>43981</v>
+      </c>
+      <c r="B114">
         <v>63504872</v>
       </c>
-      <c r="C29">
+      <c r="C114">
         <v>599.57249999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="6">
-        <v>44013</v>
-      </c>
-      <c r="B30">
+    <row r="115" spans="1:3">
+      <c r="A115" s="7">
+        <v>43988</v>
+      </c>
+      <c r="B115">
+        <v>63504872</v>
+      </c>
+      <c r="C115">
+        <v>599.57249999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="7">
+        <v>43995</v>
+      </c>
+      <c r="B116">
+        <v>63504872</v>
+      </c>
+      <c r="C116">
+        <v>599.57249999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="7">
+        <v>44002</v>
+      </c>
+      <c r="B117">
+        <v>63504872</v>
+      </c>
+      <c r="C117">
+        <v>599.57249999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="7">
+        <v>44009</v>
+      </c>
+      <c r="B118">
+        <v>63504872</v>
+      </c>
+      <c r="C118">
+        <v>599.57249999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="7">
+        <v>44016</v>
+      </c>
+      <c r="B119">
         <v>68244907</v>
       </c>
-      <c r="C30">
+      <c r="C119">
         <v>532.51565219999998</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="6">
+    <row r="120" spans="1:3">
+      <c r="A120" s="7">
+        <v>44023</v>
+      </c>
+      <c r="B120">
+        <v>68244907</v>
+      </c>
+      <c r="C120">
+        <v>532.51565219999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="7">
+        <v>44030</v>
+      </c>
+      <c r="B121">
+        <v>68244907</v>
+      </c>
+      <c r="C121">
+        <v>532.51565219999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="7">
+        <v>44037</v>
+      </c>
+      <c r="B122">
+        <v>68244907</v>
+      </c>
+      <c r="C122">
+        <v>532.51565219999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="7">
         <v>44044</v>
       </c>
-      <c r="B31">
+      <c r="B123">
         <v>72937834</v>
       </c>
-      <c r="C31">
+      <c r="C123">
         <v>672.12761899999998</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="6">
-        <v>44075</v>
-      </c>
-      <c r="B32">
+    <row r="124" spans="1:3">
+      <c r="A124" s="7">
+        <v>44051</v>
+      </c>
+      <c r="B124">
+        <v>72937834</v>
+      </c>
+      <c r="C124">
+        <v>672.12761899999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="7">
+        <v>44058</v>
+      </c>
+      <c r="B125">
+        <v>72937834</v>
+      </c>
+      <c r="C125">
+        <v>672.12761899999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="7">
+        <v>44065</v>
+      </c>
+      <c r="B126">
+        <v>72937834</v>
+      </c>
+      <c r="C126">
+        <v>672.12761899999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="7">
+        <v>44072</v>
+      </c>
+      <c r="B127">
+        <v>72937834</v>
+      </c>
+      <c r="C127">
+        <v>672.12761899999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="7">
+        <v>44079</v>
+      </c>
+      <c r="B128">
         <v>64543624</v>
       </c>
-      <c r="C32">
+      <c r="C128">
         <v>761.66136359999996</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="6">
-        <v>44105</v>
-      </c>
-      <c r="B33">
+    <row r="129" spans="1:3">
+      <c r="A129" s="7">
+        <v>44086</v>
+      </c>
+      <c r="B129">
+        <v>64543624</v>
+      </c>
+      <c r="C129">
+        <v>761.66136359999996</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="7">
+        <v>44093</v>
+      </c>
+      <c r="B130">
+        <v>64543624</v>
+      </c>
+      <c r="C130">
+        <v>761.66136359999996</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="7">
+        <v>44100</v>
+      </c>
+      <c r="B131">
+        <v>64543624</v>
+      </c>
+      <c r="C131">
+        <v>761.66136359999996</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="7">
+        <v>44107</v>
+      </c>
+      <c r="B132">
         <v>61720000</v>
       </c>
-      <c r="C33">
+      <c r="C132">
         <v>715.62125000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="6">
-        <v>44136</v>
-      </c>
-      <c r="B34">
+    <row r="133" spans="1:3">
+      <c r="A133" s="7">
+        <v>44114</v>
+      </c>
+      <c r="B133">
+        <v>61720000</v>
+      </c>
+      <c r="C133">
+        <v>715.62125000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="7">
+        <v>44121</v>
+      </c>
+      <c r="B134">
+        <v>61720000</v>
+      </c>
+      <c r="C134">
+        <v>715.62125000000003</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="7">
+        <v>44128</v>
+      </c>
+      <c r="B135">
+        <v>61720000</v>
+      </c>
+      <c r="C135">
+        <v>715.62125000000003</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="7">
+        <v>44135</v>
+      </c>
+      <c r="B136">
         <v>64667571</v>
       </c>
-      <c r="C34">
+      <c r="C136">
         <v>838.59238095238084</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="6">
-        <v>44166</v>
-      </c>
-      <c r="B35">
+    <row r="137" spans="1:3">
+      <c r="A137" s="7">
+        <v>44142</v>
+      </c>
+      <c r="B137">
+        <v>64667571</v>
+      </c>
+      <c r="C137">
+        <v>838.59238095238084</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="7">
+        <v>44149</v>
+      </c>
+      <c r="B138">
+        <v>64667571</v>
+      </c>
+      <c r="C138">
+        <v>838.59238095238084</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="7">
+        <v>44156</v>
+      </c>
+      <c r="B139">
+        <v>64667571</v>
+      </c>
+      <c r="C139">
+        <v>838.59238095238084</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="7">
+        <v>44163</v>
+      </c>
+      <c r="B140">
+        <v>64667571</v>
+      </c>
+      <c r="C140">
+        <v>838.59238095238084</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="7">
+        <v>44170</v>
+      </c>
+      <c r="B141">
         <v>83380000</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C141" s="2">
         <v>1174.46</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="7">
+        <v>44177</v>
+      </c>
+      <c r="B142">
+        <v>83380000</v>
+      </c>
+      <c r="C142" s="2">
+        <v>1174.46</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="7">
+        <v>44184</v>
+      </c>
+      <c r="B143">
+        <v>83380000</v>
+      </c>
+      <c r="C143" s="2">
+        <v>1174.46</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="7">
+        <v>44191</v>
+      </c>
+      <c r="B144">
+        <v>83380000</v>
+      </c>
+      <c r="C144" s="2">
+        <v>1174.46</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="7">
+        <v>44198</v>
+      </c>
+      <c r="B145">
+        <v>64000000</v>
+      </c>
+      <c r="C145">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="7">
+        <v>44205</v>
+      </c>
+      <c r="B146">
+        <v>64000000</v>
+      </c>
+      <c r="C146">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="7">
+        <v>44212</v>
+      </c>
+      <c r="B147">
+        <v>64000000</v>
+      </c>
+      <c r="C147">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="7">
+        <v>44219</v>
+      </c>
+      <c r="B148">
+        <v>64000000</v>
+      </c>
+      <c r="C148">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="7">
+        <v>44226</v>
+      </c>
+      <c r="B149">
+        <v>62000000</v>
+      </c>
+      <c r="C149">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="7">
+        <v>44233</v>
+      </c>
+      <c r="B150">
+        <v>62000000</v>
+      </c>
+      <c r="C150">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="7">
+        <v>44247</v>
+      </c>
+      <c r="B151">
+        <v>62000000</v>
+      </c>
+      <c r="C151">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="7">
+        <v>44254</v>
+      </c>
+      <c r="B152">
+        <v>62000000</v>
+      </c>
+      <c r="C152">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="7">
+        <v>44261</v>
+      </c>
+      <c r="B153">
+        <v>63000000</v>
+      </c>
+      <c r="C153">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="7">
+        <v>44268</v>
+      </c>
+      <c r="B154">
+        <v>63000000</v>
+      </c>
+      <c r="C154">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="7">
+        <v>44275</v>
+      </c>
+      <c r="B155">
+        <v>63000000</v>
+      </c>
+      <c r="C155">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="7">
+        <v>44282</v>
+      </c>
+      <c r="B156">
+        <v>63000000</v>
+      </c>
+      <c r="C156">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="7">
+        <v>44289</v>
+      </c>
+      <c r="B157">
+        <v>60195774</v>
+      </c>
+      <c r="C157">
+        <v>1400</v>
       </c>
     </row>
   </sheetData>
